--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\2024-02-18_DE\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geske\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FC8F6-B17C-434C-9DB0-C60981C4A61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
     <sheet name="INTERNAL_LOADS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>code</t>
   </si>
@@ -60,36 +59,6 @@
     <t>RH_max_pc</t>
   </si>
   <si>
-    <t>D_EFH</t>
-  </si>
-  <si>
-    <t>D_MFH</t>
-  </si>
-  <si>
-    <t>D_SENIOR</t>
-  </si>
-  <si>
-    <t>D1_EINZELBUERO</t>
-  </si>
-  <si>
-    <t>D2_BUERO</t>
-  </si>
-  <si>
-    <t>D4_SITZUNG</t>
-  </si>
-  <si>
-    <t>D6_KAUFHAUS</t>
-  </si>
-  <si>
-    <t>D8_KITA</t>
-  </si>
-  <si>
-    <t>D8_SCHULE</t>
-  </si>
-  <si>
-    <t>D13_RESTAURANT</t>
-  </si>
-  <si>
     <t>MULTI_RES</t>
   </si>
   <si>
@@ -184,12 +153,24 @@
   </si>
   <si>
     <t>Ev_kWveh</t>
+  </si>
+  <si>
+    <t>SENIOR_RES</t>
+  </si>
+  <si>
+    <t>OFFICE_1P</t>
+  </si>
+  <si>
+    <t>SEMINAR</t>
+  </si>
+  <si>
+    <t>KINDERGARDEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -376,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,14 +581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -648,7 +629,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="15">
         <v>26</v>
@@ -673,8 +654,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="16">
         <v>26</v>
@@ -699,8 +680,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
+      <c r="A4" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="16">
         <v>26</v>
@@ -725,8 +706,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="16">
         <v>24</v>
@@ -751,8 +732,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
+      <c r="A6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="16">
         <v>24</v>
@@ -777,8 +758,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="16">
         <v>20</v>
@@ -803,8 +784,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
+      <c r="A8" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="16">
         <v>16</v>
@@ -829,8 +810,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
+      <c r="A9" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="16">
         <v>17.5</v>
@@ -855,7 +836,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="16">
@@ -881,8 +862,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
+      <c r="A11" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="16">
         <v>16</v>
@@ -908,7 +889,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>26</v>
@@ -920,11 +901,11 @@
         <v>28</v>
       </c>
       <c r="E12" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="0">30/3.6</f>
-        <v>8.3333333333333339</v>
+        <f t="shared" ref="F12" si="0">36/3.6</f>
+        <v>10</v>
       </c>
       <c r="G12" s="9">
         <v>30</v>
@@ -935,22 +916,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>26</v>
       </c>
       <c r="C13" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
         <v>28</v>
       </c>
       <c r="E13" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F13" si="1">30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="G13" s="9">
@@ -961,50 +942,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="1">36/3.6</f>
-        <v>10</v>
+        <f>10*15/3.6</f>
+        <v>41.666666666666664</v>
       </c>
       <c r="G14" s="9">
         <v>30</v>
       </c>
       <c r="H14" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>26</v>
       </c>
       <c r="C15" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
         <v>28</v>
       </c>
       <c r="E15" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="1"/>
+        <f>36*1000/3600</f>
         <v>10</v>
       </c>
       <c r="G15" s="9">
@@ -1016,13 +997,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7">
         <v>26</v>
       </c>
       <c r="C16" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
         <v>28</v>
@@ -1031,52 +1012,52 @@
         <v>12</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="2">30/3.6</f>
-        <v>8.3333333333333339</v>
+        <f>9*10/3.6</f>
+        <v>25</v>
       </c>
       <c r="G16" s="9">
         <v>30</v>
       </c>
       <c r="H16" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8">
         <v>12</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
+        <f>3.6*10/3.6</f>
+        <v>10</v>
       </c>
       <c r="G17" s="9">
         <v>30</v>
       </c>
       <c r="H17" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7">
         <v>26</v>
       </c>
       <c r="C18" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
         <v>28</v>
@@ -1085,35 +1066,33 @@
         <v>12</v>
       </c>
       <c r="F18" s="9">
-        <f>36/3.6</f>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9">
         <v>30</v>
       </c>
       <c r="H18" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8">
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
       </c>
       <c r="F19" s="9">
-        <f>10*15/3.6</f>
-        <v>41.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="G19" s="9">
         <v>30</v>
@@ -1124,50 +1103,49 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="F20" s="9">
-        <f>25/3.6</f>
-        <v>6.9444444444444446</v>
+        <v>0</v>
       </c>
       <c r="G20" s="9">
         <v>30</v>
       </c>
       <c r="H20" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7">
         <v>26</v>
       </c>
       <c r="C21" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
         <v>28</v>
       </c>
       <c r="E21" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F21" s="9">
-        <f>36*1000/3600</f>
-        <v>10</v>
+        <f>20*15/3.6</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="G21" s="9">
         <v>30</v>
@@ -1178,13 +1156,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7">
         <v>26</v>
       </c>
       <c r="C22" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
         <v>28</v>
@@ -1193,52 +1171,52 @@
         <v>12</v>
       </c>
       <c r="F22" s="9">
-        <f>9*10/3.6</f>
-        <v>25</v>
+        <f t="shared" ref="F22:F23" si="2">36/3.6</f>
+        <v>10</v>
       </c>
       <c r="G22" s="9">
         <v>30</v>
       </c>
       <c r="H22" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23" s="8">
         <v>12</v>
       </c>
       <c r="F23" s="9">
-        <f>3.6*10/3.6</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G23" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H23" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="7">
         <v>26</v>
       </c>
       <c r="C24" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
         <v>28</v>
@@ -1247,172 +1225,13 @@
         <v>12</v>
       </c>
       <c r="F24" s="9">
-        <v>36</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G24" s="9">
         <v>30</v>
       </c>
       <c r="H24" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28</v>
-      </c>
-      <c r="C25" s="8">
-        <v>18</v>
-      </c>
-      <c r="D25" s="7">
-        <v>28</v>
-      </c>
-      <c r="E25" s="8">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>30</v>
-      </c>
-      <c r="H25" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>-18</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>30</v>
-      </c>
-      <c r="H26" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8">
-        <v>21</v>
-      </c>
-      <c r="D27" s="7">
-        <v>28</v>
-      </c>
-      <c r="E27" s="8">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9">
-        <f>20*15/3.6</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G27" s="9">
-        <v>30</v>
-      </c>
-      <c r="H27" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="7">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8">
-        <v>21</v>
-      </c>
-      <c r="D28" s="7">
-        <v>28</v>
-      </c>
-      <c r="E28" s="8">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" ref="F28:F29" si="3">36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="9">
-        <v>30</v>
-      </c>
-      <c r="H28" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="7">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8">
-        <v>21</v>
-      </c>
-      <c r="D29" s="7">
-        <v>28</v>
-      </c>
-      <c r="E29" s="8">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G29" s="9">
-        <v>40</v>
-      </c>
-      <c r="H29" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="7">
-        <v>26</v>
-      </c>
-      <c r="C30" s="8">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="8">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G30" s="9">
-        <v>30</v>
-      </c>
-      <c r="H30" s="9">
         <v>60</v>
       </c>
     </row>
@@ -1423,14 +1242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
@@ -1452,48 +1271,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13">
         <v>48</v>
@@ -1536,8 +1355,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="14">
         <v>35</v>
@@ -1581,7 +1400,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14">
         <v>35</v>
@@ -1625,7 +1444,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14">
         <v>14</v>
@@ -1669,7 +1488,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="14">
         <v>17</v>
@@ -1713,7 +1532,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -1757,7 +1576,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="14">
         <v>5</v>
@@ -1801,7 +1620,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B9" s="14">
         <v>3</v>
@@ -1889,7 +1708,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="14">
         <v>1.2</v>
@@ -1932,11 +1751,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
+      <c r="A12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12" s="11">
         <v>70</v>
@@ -1950,7 +1769,7 @@
       <c r="F12" s="11">
         <v>2.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="9">
@@ -1960,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="11">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1977,22 +1796,23 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>50</v>
-      </c>
-      <c r="C13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
         <v>70</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>80</v>
       </c>
-      <c r="E13" s="9">
-        <v>8</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2.7</v>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <f>9.3+24</f>
+        <v>33.299999999999997</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -2001,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J13" s="11">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2020,41 +1840,41 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="11">
         <v>15</v>
       </c>
       <c r="C14" s="11">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E14" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11">
-        <v>2.7</v>
+        <v>10.8</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="J14" s="11">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
@@ -2065,10 +1885,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="11">
-        <v>14</v>
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
       </c>
       <c r="C15" s="11">
         <v>70</v>
@@ -2077,10 +1898,12 @@
         <v>80</v>
       </c>
       <c r="E15" s="11">
-        <v>7</v>
+        <f>0.43*4+0.01*7+0.56*20</f>
+        <v>12.990000000000002</v>
       </c>
       <c r="F15" s="11">
-        <v>15.9</v>
+        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
+        <v>10.998000000000001</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -2089,16 +1912,18 @@
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>3</v>
+        <f>0.43*60+0.01*0+0.56*0</f>
+        <v>25.8</v>
       </c>
       <c r="J15" s="11">
-        <v>60</v>
+        <f>I15*4</f>
+        <v>103.2</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M15" s="9">
         <v>0</v>
@@ -2109,23 +1934,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="E16" s="11">
         <v>2</v>
       </c>
       <c r="F16" s="11">
-        <f>9.3+24</f>
-        <v>33.299999999999997</v>
+        <v>9.9</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
@@ -2134,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="J16" s="11">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2154,10 +1978,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="11">
         <v>70</v>
@@ -2169,8 +1993,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="11">
-        <f>9.3+12</f>
-        <v>21.3</v>
+        <v>11.3</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -2179,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="J17" s="11">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="K17" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -2199,34 +2022,34 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="11">
         <v>70</v>
       </c>
       <c r="D18" s="11">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="H18" s="11">
+        <v>100</v>
       </c>
       <c r="I18" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2243,40 +2066,40 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C19" s="11">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D19" s="11">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
-        <v>10.8</v>
+        <v>2.9</v>
       </c>
       <c r="G19" s="11">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9">
         <v>0</v>
@@ -2287,22 +2110,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="11">
         <v>70</v>
       </c>
       <c r="D20" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E20" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>14</v>
+        <v>5.7</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
@@ -2311,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -2331,45 +2154,43 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="11">
-        <f>15*0.43+3*0.01+5*0.56</f>
-        <v>9.2800000000000011</v>
+        <v>15</v>
       </c>
       <c r="C21" s="11">
+        <f>C15</f>
         <v>70</v>
       </c>
       <c r="D21" s="11">
+        <f>D15</f>
         <v>80</v>
       </c>
       <c r="E21" s="11">
-        <f>0.43*4+0.01*7+0.56*20</f>
-        <v>12.990000000000002</v>
+        <v>20</v>
       </c>
       <c r="F21" s="11">
-        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
-        <v>10.998000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <f>G14</f>
+        <v>16.5</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <f>0.43*60+0.01*0+0.56*0</f>
-        <v>25.8</v>
+        <v>3</v>
       </c>
       <c r="J21" s="11">
-        <f>I21*4</f>
-        <v>103.2</v>
+        <v>60</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
       </c>
       <c r="L21" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9">
         <v>0</v>
@@ -2380,34 +2201,34 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C22" s="11">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D22" s="11">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="E22" s="11">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="11">
-        <v>9.9</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>60</v>
-      </c>
       <c r="J22" s="11">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -2424,10 +2245,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="11">
         <v>70</v>
@@ -2439,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="11">
-        <v>11.3</v>
+        <v>6.9</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -2448,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -2468,34 +2289,34 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24" s="11">
         <v>70</v>
       </c>
       <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4</v>
       </c>
       <c r="F24" s="11">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11">
-        <v>100</v>
+      <c r="H24" s="9">
+        <v>0</v>
       </c>
       <c r="I24" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -2507,273 +2328,6 @@
         <v>0</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>35</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11">
-        <v>70</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>100</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="11">
-        <v>15</v>
-      </c>
-      <c r="C27" s="11">
-        <f>C21</f>
-        <v>70</v>
-      </c>
-      <c r="D27" s="11">
-        <f>D21</f>
-        <v>80</v>
-      </c>
-      <c r="E27" s="11">
-        <v>20</v>
-      </c>
-      <c r="F27" s="11">
-        <v>16.2</v>
-      </c>
-      <c r="G27" s="11">
-        <f>G19</f>
-        <v>16.5</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>3</v>
-      </c>
-      <c r="J27" s="11">
-        <v>60</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="11">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11">
-        <v>70</v>
-      </c>
-      <c r="D28" s="11">
-        <v>80</v>
-      </c>
-      <c r="E28" s="11">
-        <v>7</v>
-      </c>
-      <c r="F28" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>2</v>
-      </c>
-      <c r="J28" s="11">
-        <v>30</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="11">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
-        <v>70</v>
-      </c>
-      <c r="D29" s="11">
-        <v>80</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="11">
-        <v>10</v>
-      </c>
-      <c r="C30" s="11">
-        <v>70</v>
-      </c>
-      <c r="D30" s="11">
-        <v>80</v>
-      </c>
-      <c r="E30" s="11">
-        <v>4</v>
-      </c>
-      <c r="F30" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>2</v>
-      </c>
-      <c r="J30" s="11">
-        <v>30</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2784,6 +2338,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2953,35 +2522,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3003,9 +2547,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geske\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YTSA01\CS\CityEnergyAnalyst\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2373721F-8609-4B86-9432-91A3F37687F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
     <sheet name="INTERNAL_LOADS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>code</t>
   </si>
@@ -165,16 +166,38 @@
   </si>
   <si>
     <t>KINDERGARDEN</t>
+  </si>
+  <si>
+    <t>TCData_Sup</t>
+  </si>
+  <si>
+    <t>TCData_Re</t>
+  </si>
+  <si>
+    <t>Hp_X_Cool</t>
+  </si>
+  <si>
+    <t>Hp_Ratio</t>
+  </si>
+  <si>
+    <t>N_Hs</t>
+  </si>
+  <si>
+    <t>SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>PHARMACEUTICAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +219,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +255,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -305,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -340,24 +382,39 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,16 +638,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
@@ -631,25 +688,25 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>26</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>20</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>32</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>16</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>25</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>60</v>
       </c>
     </row>
@@ -657,25 +714,25 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>26</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>20</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>32</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>16</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>25</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>60</v>
       </c>
     </row>
@@ -683,25 +740,25 @@
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>26</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>20</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>32</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>16</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>25</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>60</v>
       </c>
     </row>
@@ -709,25 +766,25 @@
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>24</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>26</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>20</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>11.1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>25</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>60</v>
       </c>
     </row>
@@ -735,25 +792,25 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>24</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>21</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>26</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>11.1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>25</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>60</v>
       </c>
     </row>
@@ -761,25 +818,25 @@
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>20</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>26</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>16</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>32</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>5.6</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>25</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>60</v>
       </c>
     </row>
@@ -787,25 +844,25 @@
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>25</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>16</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>32</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>5.6</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>25</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>60</v>
       </c>
     </row>
@@ -813,25 +870,25 @@
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>17.5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>25.5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>16</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>32</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>25</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>60</v>
       </c>
     </row>
@@ -839,25 +896,25 @@
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>26</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>32</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>25</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>60</v>
       </c>
     </row>
@@ -865,25 +922,25 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>16</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>32</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1076,11 +1133,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+      <c r="A19" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8">
         <v>18</v>
@@ -1092,50 +1149,50 @@
         <v>12</v>
       </c>
       <c r="F19" s="9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G19" s="9">
         <v>30</v>
       </c>
       <c r="H19" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
+      <c r="A20" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E20" s="8">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G20" s="9">
         <v>30</v>
       </c>
       <c r="H20" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7">
         <v>28</v>
@@ -1144,94 +1201,146 @@
         <v>12</v>
       </c>
       <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>30</v>
+      </c>
+      <c r="H21" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-18</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>30</v>
+      </c>
+      <c r="H22" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G23" s="9">
         <v>30</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H23" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B24" s="7">
         <v>26</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C24" s="8">
         <v>21</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D24" s="7">
         <v>28</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E24" s="8">
         <v>12</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="2">36/3.6</f>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="2">36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G24" s="9">
         <v>30</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H24" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B25" s="7">
         <v>26</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C25" s="8">
         <v>21</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D25" s="7">
         <v>28</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>12</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G25" s="9">
         <v>40</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H25" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B26" s="7">
         <v>26</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C26" s="8">
         <v>21</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>28</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E26" s="8">
         <v>12</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F26" s="9">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G26" s="9">
         <v>30</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H26" s="9">
         <v>60</v>
       </c>
     </row>
@@ -1242,14 +1351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+    <sheetView topLeftCell="A10" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
@@ -1263,10 +1372,14 @@
     <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
     <col min="12" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1309,448 +1422,613 @@
       <c r="N1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>48</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>70</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>60</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>6.4</v>
       </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
         <v>11.6</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>115.4</v>
       </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17">
+        <v>7</v>
+      </c>
+      <c r="P2" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>35</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>70</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>60</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>6.4</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
         <v>11.6</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>115.4</v>
       </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>7</v>
+      </c>
+      <c r="P3" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>35</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>70</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>60</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>6.4</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>11.6</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>115.4</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>7</v>
+      </c>
+      <c r="P4" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R4" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>14</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>70</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>84</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>16.2</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
         <v>2.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>22.5</v>
       </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>7</v>
+      </c>
+      <c r="P5" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>17</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>70</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>60</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>18.2</v>
       </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
         <v>2.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>22.5</v>
       </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>7</v>
+      </c>
+      <c r="P6" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>70</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>18.7</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>12</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>17</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>2.5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>22.5</v>
       </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>7</v>
+      </c>
+      <c r="P7" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>70</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>5.5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>12.3</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>2.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>22.5</v>
       </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>7</v>
+      </c>
+      <c r="P8" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>60</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>47.37</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>12.1</v>
       </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>7</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>60</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>33.33</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>8</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>17</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>7</v>
+      </c>
+      <c r="P10" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>1.2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>70</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>11.8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>20.100000000000001</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>5.5</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>49.5</v>
       </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>7</v>
+      </c>
+      <c r="P11" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1793,8 +2071,23 @@
       <c r="N12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="17">
+        <v>7</v>
+      </c>
+      <c r="P12" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1838,8 +2131,23 @@
       <c r="N13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="17">
+        <v>7</v>
+      </c>
+      <c r="P13" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1882,8 +2190,23 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="17">
+        <v>7</v>
+      </c>
+      <c r="P14" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1931,8 +2254,23 @@
       <c r="N15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="17">
+        <v>7</v>
+      </c>
+      <c r="P15" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1975,8 +2313,23 @@
       <c r="N16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="17">
+        <v>7</v>
+      </c>
+      <c r="P16" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -2019,8 +2372,23 @@
       <c r="N17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="17">
+        <v>7</v>
+      </c>
+      <c r="P17" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R17" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2401,7 @@
       <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
       <c r="F18" s="11">
@@ -2063,31 +2431,46 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+      <c r="O18" s="17">
+        <v>7</v>
+      </c>
+      <c r="P18" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>0</v>
       </c>
       <c r="C19" s="11">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
+      <c r="H19" s="11">
+        <v>100</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -2107,10 +2490,25 @@
       <c r="N19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
+      <c r="O19" s="17">
+        <v>7</v>
+      </c>
+      <c r="P19" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0.222</v>
+      </c>
+      <c r="R19" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S19" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
@@ -2125,174 +2523,234 @@
         <v>0</v>
       </c>
       <c r="F20" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>100</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>7</v>
+      </c>
+      <c r="P20" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <v>35</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>7</v>
+      </c>
+      <c r="P21" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>70</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
         <v>5.7</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
         <v>100</v>
       </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>7</v>
+      </c>
+      <c r="P22" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S22" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B23" s="11">
         <v>15</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="11">
         <f>C15</f>
         <v>70</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <f>D15</f>
         <v>80</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E23" s="11">
         <v>20</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="11">
         <v>16.2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G23" s="11">
         <f>G14</f>
         <v>16.5</v>
       </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
         <v>3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J23" s="11">
         <v>60</v>
       </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>7</v>
+      </c>
+      <c r="P23" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B24" s="11">
         <v>3</v>
-      </c>
-      <c r="C22" s="11">
-        <v>70</v>
-      </c>
-      <c r="D22" s="11">
-        <v>80</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="11">
-        <v>30</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="11">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
-        <v>70</v>
-      </c>
-      <c r="D23" s="11">
-        <v>80</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11">
-        <v>10</v>
       </c>
       <c r="C24" s="11">
         <v>70</v>
@@ -2301,10 +2759,10 @@
         <v>80</v>
       </c>
       <c r="E24" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F24" s="11">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -2329,6 +2787,139 @@
       </c>
       <c r="N24" s="9">
         <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>7</v>
+      </c>
+      <c r="P24" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
+        <v>70</v>
+      </c>
+      <c r="D25" s="11">
+        <v>80</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17">
+        <v>7</v>
+      </c>
+      <c r="P25" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S25" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11">
+        <v>70</v>
+      </c>
+      <c r="D26" s="11">
+        <v>80</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>30</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17">
+        <v>7</v>
+      </c>
+      <c r="P26" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geske\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalystFork\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E95E9-0404-442E-AE1E-D309CBD20861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
     <sheet name="INTERNAL_LOADS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -305,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -353,6 +352,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,13 +637,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="13">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="D2" s="13">
         <v>32</v>
       </c>
       <c r="E2" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="13">
         <v>8.3000000000000007</v>
@@ -660,14 +662,14 @@
       <c r="B3" s="16">
         <v>26</v>
       </c>
-      <c r="C3" s="14">
-        <v>20</v>
+      <c r="C3" s="13">
+        <v>20.9</v>
       </c>
       <c r="D3" s="14">
         <v>32</v>
       </c>
       <c r="E3" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="14">
         <v>8.3000000000000007</v>
@@ -686,14 +688,14 @@
       <c r="B4" s="16">
         <v>26</v>
       </c>
-      <c r="C4" s="14">
-        <v>20</v>
+      <c r="C4" s="13">
+        <v>20.9</v>
       </c>
       <c r="D4" s="14">
         <v>32</v>
       </c>
       <c r="E4" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14">
         <v>8.3000000000000007</v>
@@ -1242,11 +1244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,8 +1337,8 @@
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="13">
-        <v>11.6</v>
+      <c r="I2" s="17">
+        <v>50.82</v>
       </c>
       <c r="J2" s="13">
         <v>115.4</v>
@@ -1379,8 +1381,8 @@
       <c r="H3" s="14">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
-        <v>11.6</v>
+      <c r="I3" s="17">
+        <v>50.82</v>
       </c>
       <c r="J3" s="13">
         <v>115.4</v>
@@ -1423,8 +1425,8 @@
       <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="13">
-        <v>11.6</v>
+      <c r="I4" s="17">
+        <v>50.82</v>
       </c>
       <c r="J4" s="13">
         <v>115.4</v>
@@ -2338,21 +2340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2522,10 +2509,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2547,19 +2559,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalystFork\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E95E9-0404-442E-AE1E-D309CBD20861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4837E10-4936-4630-8CED-BAC145649A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>50.82</v>
+        <v>51.66</v>
       </c>
       <c r="J2" s="13">
         <v>115.4</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="17">
-        <v>50.82</v>
+        <v>51.66</v>
       </c>
       <c r="J3" s="13">
         <v>115.4</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="17">
-        <v>50.82</v>
+        <v>51.66</v>
       </c>
       <c r="J4" s="13">
         <v>115.4</v>
@@ -2340,6 +2340,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2509,35 +2524,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2559,9 +2549,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalystFork\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4837E10-4936-4630-8CED-BAC145649A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA862E-ADA8-407C-92C5-DDACF6200992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>51.66</v>
       </c>
       <c r="J2" s="13">
-        <v>115.4</v>
+        <v>123</v>
       </c>
       <c r="K2" s="13">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>51.66</v>
       </c>
       <c r="J3" s="13">
-        <v>115.4</v>
+        <v>123</v>
       </c>
       <c r="K3" s="14">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>51.66</v>
       </c>
       <c r="J4" s="13">
-        <v>115.4</v>
+        <v>123</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
@@ -2340,21 +2340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2524,10 +2509,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2549,19 +2559,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalystFork\cea\databases\DE\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urban\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA862E-ADA8-407C-92C5-DDACF6200992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE9150-CDE6-4B25-AED5-56236B6A47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="30" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
@@ -342,16 +342,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,24 +586,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -655,7 +655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -681,7 +681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -707,7 +707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -733,7 +733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -759,21 +759,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="16">
+        <v>26</v>
+      </c>
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="C7" s="14">
-        <v>26</v>
-      </c>
       <c r="D7" s="14">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14">
         <v>16</v>
-      </c>
-      <c r="E7" s="14">
-        <v>32</v>
       </c>
       <c r="F7" s="14">
         <v>5.6</v>
@@ -785,21 +785,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
-        <v>25</v>
-      </c>
       <c r="D8" s="14">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14">
         <v>16</v>
-      </c>
-      <c r="E8" s="14">
-        <v>32</v>
       </c>
       <c r="F8" s="14">
         <v>5.6</v>
@@ -811,21 +811,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="C9" s="14">
         <v>17.5</v>
       </c>
-      <c r="C9" s="14">
-        <v>25.5</v>
-      </c>
       <c r="D9" s="14">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14">
         <v>16</v>
-      </c>
-      <c r="E9" s="14">
-        <v>32</v>
       </c>
       <c r="F9" s="14">
         <v>8.3000000000000007</v>
@@ -837,21 +837,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="16">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
-        <v>26</v>
-      </c>
       <c r="D10" s="14">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14">
         <v>16</v>
-      </c>
-      <c r="E10" s="14">
-        <v>32</v>
       </c>
       <c r="F10" s="14">
         <v>8.3000000000000007</v>
@@ -863,21 +863,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
-        <v>25</v>
-      </c>
       <c r="D11" s="14">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14">
         <v>16</v>
-      </c>
-      <c r="E11" s="14">
-        <v>32</v>
       </c>
       <c r="F11" s="14">
         <v>8.3000000000000007</v>
@@ -889,7 +889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -916,7 +916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -970,7 +970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -997,7 +997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1247,28 +1247,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -2340,6 +2340,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2509,12 +2515,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2525,6 +2525,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2542,22 +2558,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>

--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urban\Documents\GitHub\CityEnergyAnalyst\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE9150-CDE6-4B25-AED5-56236B6A47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF8085-95B0-44D5-9514-88B8DA0BA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="30" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -152,18 +152,6 @@
   </si>
   <si>
     <t>Ev_kWveh</t>
-  </si>
-  <si>
-    <t>SENIOR_RES</t>
-  </si>
-  <si>
-    <t>OFFICE_1P</t>
-  </si>
-  <si>
-    <t>SEMINAR</t>
-  </si>
-  <si>
-    <t>KINDERGARDEN</t>
   </si>
 </sst>
 </file>
@@ -304,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -356,6 +344,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,49 +643,49 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13">
-        <v>20.9</v>
-      </c>
-      <c r="D2" s="13">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13">
-        <v>17</v>
-      </c>
-      <c r="F2" s="13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G2" s="13">
-        <v>25</v>
-      </c>
-      <c r="H2" s="13">
-        <v>60</v>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-18</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>30</v>
+      </c>
+      <c r="H2" s="23">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="16">
         <v>26</v>
       </c>
       <c r="C3" s="13">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="14">
-        <v>8.3000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="G3" s="14">
         <v>25</v>
@@ -682,249 +695,255 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20">
+        <v>19</v>
+      </c>
+      <c r="D4" s="22">
+        <v>28</v>
+      </c>
+      <c r="E4" s="20">
+        <v>15</v>
+      </c>
+      <c r="F4" s="24">
+        <f>9*10/3.6</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="24">
+        <v>30</v>
+      </c>
+      <c r="H4" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20">
+        <v>22</v>
+      </c>
+      <c r="D5" s="22">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20">
+        <v>21</v>
+      </c>
+      <c r="F5" s="24">
+        <f>36*1000/3600</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="24">
+        <v>30</v>
+      </c>
+      <c r="H5" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20">
+        <v>17</v>
+      </c>
+      <c r="F6" s="24">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="24">
+        <v>30</v>
+      </c>
+      <c r="H6" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22">
+        <v>32</v>
+      </c>
+      <c r="E7" s="20">
+        <v>16</v>
+      </c>
+      <c r="F7" s="24">
+        <f>10*15/3.6</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G7" s="24">
+        <v>30</v>
+      </c>
+      <c r="H7" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9">
+        <f>20*15/3.6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G8" s="9">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
         <v>40</v>
       </c>
-      <c r="B4" s="16">
+      <c r="H9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C10" s="15">
         <v>20.9</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D10" s="15">
         <v>32</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E10" s="15">
         <v>17</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F10" s="15">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G10" s="15">
         <v>25</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H10" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="14">
+      <c r="B11" s="7">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D11" s="7">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
         <v>26</v>
       </c>
-      <c r="E5" s="14">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="C12" s="15">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15">
         <v>11.1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G12" s="15">
         <v>25</v>
       </c>
-      <c r="H5" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14">
-        <v>21</v>
-      </c>
-      <c r="D6" s="14">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <v>11.1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="16">
-        <v>26</v>
-      </c>
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>32</v>
-      </c>
-      <c r="E7" s="14">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="G7" s="14">
-        <v>25</v>
-      </c>
-      <c r="H7" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16">
-        <v>25</v>
-      </c>
-      <c r="C8" s="14">
-        <v>16</v>
-      </c>
-      <c r="D8" s="14">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="G8" s="14">
-        <v>25</v>
-      </c>
-      <c r="H8" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="16">
-        <v>25.5</v>
-      </c>
-      <c r="C9" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G9" s="14">
-        <v>25</v>
-      </c>
-      <c r="H9" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14">
-        <v>32</v>
-      </c>
-      <c r="E10" s="14">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G10" s="14">
-        <v>25</v>
-      </c>
-      <c r="H10" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="16">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14">
-        <v>16</v>
-      </c>
-      <c r="D11" s="14">
-        <v>32</v>
-      </c>
-      <c r="E11" s="14">
-        <v>16</v>
-      </c>
-      <c r="F11" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G11" s="14">
-        <v>25</v>
-      </c>
-      <c r="H11" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>28</v>
-      </c>
-      <c r="E12" s="8">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12" si="0">36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="9">
-        <v>30</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="H12" s="15">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>28</v>
@@ -933,62 +952,60 @@
         <v>12</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" ref="F13" si="1">30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9">
         <v>30</v>
       </c>
       <c r="H13" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <v>28</v>
+      </c>
+      <c r="E14" s="15">
+        <v>17</v>
+      </c>
+      <c r="F14" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G14" s="15">
+        <v>25</v>
+      </c>
+      <c r="H14" s="15">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9">
-        <f>10*15/3.6</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="G14" s="9">
-        <v>30</v>
-      </c>
-      <c r="H14" s="9">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>26</v>
       </c>
       <c r="C15" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
         <v>28</v>
       </c>
       <c r="E15" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F15" s="9">
-        <f>36*1000/3600</f>
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G15" s="9">
         <v>30</v>
@@ -998,104 +1015,103 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15">
         <v>26</v>
       </c>
-      <c r="C16" s="8">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="15">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15">
         <v>28</v>
       </c>
-      <c r="E16" s="8">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9">
-        <f>9*10/3.6</f>
+      <c r="E16" s="15">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G16" s="15">
         <v>25</v>
       </c>
-      <c r="G16" s="9">
-        <v>30</v>
-      </c>
-      <c r="H16" s="9">
-        <v>70</v>
+      <c r="H16" s="15">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17" s="8">
         <v>12</v>
       </c>
       <c r="F17" s="9">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9">
+        <v>30</v>
+      </c>
+      <c r="H17" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15">
+        <v>26</v>
+      </c>
+      <c r="C18" s="15">
+        <v>20.9</v>
+      </c>
+      <c r="D18" s="15">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G18" s="15">
+        <v>25</v>
+      </c>
+      <c r="H18" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8">
+        <v>20</v>
+      </c>
+      <c r="F19" s="9">
         <f>3.6*10/3.6</f>
         <v>10</v>
       </c>
-      <c r="G17" s="9">
-        <v>30</v>
-      </c>
-      <c r="H17" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="7">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
-        <v>36</v>
-      </c>
-      <c r="G18" s="9">
-        <v>30</v>
-      </c>
-      <c r="H18" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7">
-        <v>28</v>
-      </c>
-      <c r="E19" s="8">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
       <c r="G19" s="9">
         <v>30</v>
       </c>
@@ -1105,139 +1121,35 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E20" s="8">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G20" s="9">
         <v>30</v>
       </c>
       <c r="H20" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9">
-        <f>20*15/3.6</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G21" s="9">
-        <v>30</v>
-      </c>
-      <c r="H21" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7">
-        <v>26</v>
-      </c>
-      <c r="C22" s="8">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7">
-        <v>28</v>
-      </c>
-      <c r="E22" s="8">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="2">36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="9">
-        <v>30</v>
-      </c>
-      <c r="H22" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="7">
-        <v>26</v>
-      </c>
-      <c r="C23" s="8">
-        <v>21</v>
-      </c>
-      <c r="D23" s="7">
-        <v>28</v>
-      </c>
-      <c r="E23" s="8">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G23" s="9">
-        <v>40</v>
-      </c>
-      <c r="H23" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="7">
-        <v>26</v>
-      </c>
-      <c r="C24" s="8">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7">
-        <v>28</v>
-      </c>
-      <c r="E24" s="8">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G24" s="9">
-        <v>30</v>
-      </c>
-      <c r="H24" s="9">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H20">
+    <sortCondition ref="A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1245,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,10 +1314,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B4" s="14">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C4" s="14">
         <v>70</v>
@@ -1414,10 +1326,10 @@
         <v>60</v>
       </c>
       <c r="E4" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="13">
-        <v>6.4</v>
+        <v>18.2</v>
       </c>
       <c r="G4" s="14">
         <v>0</v>
@@ -1425,11 +1337,11 @@
       <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
-        <v>51.66</v>
+      <c r="I4" s="13">
+        <v>2.5</v>
       </c>
       <c r="J4" s="13">
-        <v>123</v>
+        <v>22.5</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
@@ -1446,22 +1358,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="14">
         <v>70</v>
       </c>
       <c r="D5" s="14">
-        <v>84</v>
+        <v>5.5</v>
       </c>
       <c r="E5" s="14">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13">
-        <v>16.2</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>12.3</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -1469,10 +1381,10 @@
       <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
         <v>2.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="14">
         <v>22.5</v>
       </c>
       <c r="K5" s="14">
@@ -1490,34 +1402,34 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>60</v>
+      </c>
+      <c r="D6" s="14">
+        <v>33.33</v>
+      </c>
+      <c r="E6" s="14">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14">
-        <v>60</v>
-      </c>
-      <c r="E6" s="14">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13">
-        <v>18.2</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="13">
-        <v>22.5</v>
+      <c r="J6" s="14">
+        <v>11</v>
       </c>
       <c r="K6" s="14">
         <v>0</v>
@@ -1534,254 +1446,260 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B7" s="14">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C7" s="14">
         <v>70</v>
       </c>
       <c r="D7" s="14">
-        <v>18.7</v>
+        <v>11.8</v>
       </c>
       <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>77</v>
+      </c>
+      <c r="J7" s="14">
+        <v>77</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11">
+        <v>80</v>
+      </c>
+      <c r="E8" s="11">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>40</v>
+      </c>
+      <c r="J8" s="11">
+        <v>160</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14">
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>9.3+24</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>30</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>90</v>
+      </c>
+      <c r="D10" s="11">
+        <v>170</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="G10" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>60</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>150</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="J7" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B11" s="11">
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="C11" s="11">
         <v>70</v>
       </c>
-      <c r="D8" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>12.3</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="J8" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="14">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="D11" s="11">
+        <v>80</v>
+      </c>
+      <c r="E11" s="11">
+        <f>0.43*4+0.01*7+0.56*20</f>
+        <v>12.990000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
+        <v>10.998000000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f>0.43*60+0.01*0+0.56*0</f>
+        <v>25.8</v>
+      </c>
+      <c r="J11" s="11">
+        <f>I11*4</f>
+        <v>103.2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>16</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <v>120</v>
+      </c>
+      <c r="D12" s="11">
+        <v>280</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
         <v>60</v>
       </c>
-      <c r="D9" s="14">
-        <v>47.37</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14">
-        <v>12.1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14">
-        <v>33.33</v>
-      </c>
-      <c r="E10" s="14">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14">
-        <v>17</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="14">
-        <v>70</v>
-      </c>
-      <c r="D11" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="E11" s="14">
-        <v>4</v>
-      </c>
-      <c r="F11" s="14">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="J11" s="14">
-        <v>49.5</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11">
-        <v>70</v>
-      </c>
-      <c r="D12" s="11">
-        <v>80</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2.7</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>40</v>
-      </c>
       <c r="J12" s="11">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1798,10 +1716,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11">
         <v>70</v>
@@ -1813,8 +1731,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="11">
-        <f>9.3+24</f>
-        <v>33.299999999999997</v>
+        <v>11.3</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -1823,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="J13" s="11">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -1843,40 +1760,40 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" s="11">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D14" s="11">
-        <v>170</v>
-      </c>
-      <c r="E14" s="11">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>10.8</v>
+        <v>6.6</v>
       </c>
       <c r="G14" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>100</v>
       </c>
       <c r="I14" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
@@ -1887,25 +1804,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11">
-        <f>15*0.43+3*0.01+5*0.56</f>
-        <v>9.2800000000000011</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D15" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f>0.43*4+0.01*7+0.56*20</f>
-        <v>12.990000000000002</v>
+        <v>1</v>
       </c>
       <c r="F15" s="11">
-        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
-        <v>10.998000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -1914,18 +1828,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <f>0.43*60+0.01*0+0.56*0</f>
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <f>I15*4</f>
-        <v>103.2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9">
         <v>0</v>
@@ -1936,22 +1848,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
@@ -1960,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1980,34 +1892,37 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11">
+        <f>C11</f>
         <v>70</v>
       </c>
       <c r="D17" s="11">
+        <f>D11</f>
         <v>80</v>
       </c>
       <c r="E17" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11">
-        <v>11.3</v>
+        <v>16.2</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <f>G10</f>
+        <v>16.5</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="J17" s="11">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2024,34 +1939,34 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="11">
         <v>70</v>
       </c>
       <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7</v>
       </c>
       <c r="F18" s="11">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="11">
-        <v>100</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2068,22 +1983,22 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="11">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E19" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="11">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -2092,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -2112,22 +2027,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11">
         <v>70</v>
       </c>
       <c r="D20" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="11">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
@@ -2136,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K20" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -2151,185 +2066,6 @@
         <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="11">
-        <v>15</v>
-      </c>
-      <c r="C21" s="11">
-        <f>C15</f>
-        <v>70</v>
-      </c>
-      <c r="D21" s="11">
-        <f>D15</f>
-        <v>80</v>
-      </c>
-      <c r="E21" s="11">
-        <v>20</v>
-      </c>
-      <c r="F21" s="11">
-        <v>16.2</v>
-      </c>
-      <c r="G21" s="11">
-        <f>G14</f>
-        <v>16.5</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>3</v>
-      </c>
-      <c r="J21" s="11">
-        <v>60</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11">
-        <v>70</v>
-      </c>
-      <c r="D22" s="11">
-        <v>80</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="11">
-        <v>30</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="11">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
-        <v>70</v>
-      </c>
-      <c r="D23" s="11">
-        <v>80</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11">
-        <v>10</v>
-      </c>
-      <c r="C24" s="11">
-        <v>70</v>
-      </c>
-      <c r="D24" s="11">
-        <v>80</v>
-      </c>
-      <c r="E24" s="11">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2</v>
-      </c>
-      <c r="J24" s="11">
-        <v>30</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2340,9 +2076,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2516,26 +2255,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2559,9 +2287,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/DE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urban\Documents\GitHub\CityEnergyAnalyst\cea\databases\DE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF8085-95B0-44D5-9514-88B8DA0BA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3185B1F-8837-43D2-8841-D193D717CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -321,13 +321,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +363,15 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +603,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,22 +652,22 @@
       <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>2</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>-18</v>
       </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
         <v>30</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <v>70</v>
       </c>
     </row>
@@ -672,25 +675,25 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>26</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>20</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>28</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>12</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>5.6</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>25</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>60</v>
       </c>
     </row>
@@ -698,26 +701,26 @@
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>26</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>19</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>28</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>15</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>9*10/3.6</f>
         <v>25</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>30</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>70</v>
       </c>
     </row>
@@ -725,26 +728,26 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>26</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>22</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>28</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>21</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>30</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>60</v>
       </c>
     </row>
@@ -752,26 +755,26 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>26</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>21</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>28</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>17</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>30</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>60</v>
       </c>
     </row>
@@ -779,26 +782,26 @@
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>30</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>20</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>32</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>16</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>30</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>70</v>
       </c>
     </row>
@@ -860,25 +863,25 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>26</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>20.9</v>
       </c>
-      <c r="D10" s="15">
-        <v>32</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="13">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13">
         <v>17</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>25</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>60</v>
       </c>
     </row>
@@ -913,25 +916,25 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>26</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>21</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>28</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>17</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>11.1</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>25</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>60</v>
       </c>
     </row>
@@ -965,25 +968,25 @@
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>26</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>21</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>28</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>17</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>25</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1018,25 +1021,25 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>26</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>21</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>28</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>17</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>25</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1070,25 +1073,25 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>26</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>20.9</v>
       </c>
-      <c r="D18" s="15">
-        <v>32</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="13">
+        <v>28</v>
+      </c>
+      <c r="E18" s="13">
         <v>17</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>25</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1159,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,299 +1228,307 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="13">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
         <v>70</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <v>100</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>70</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="24">
+        <v>10</v>
+      </c>
+      <c r="C4" s="24">
+        <v>120</v>
+      </c>
+      <c r="D4" s="24">
+        <v>280</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
         <v>60</v>
       </c>
-      <c r="E2" s="13">
+      <c r="J4" s="23">
+        <v>180</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24">
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="C5" s="24">
+        <v>70</v>
+      </c>
+      <c r="D5" s="24">
+        <v>80</v>
+      </c>
+      <c r="E5" s="24">
+        <f>0.43*4+0.01*7+0.56*20</f>
+        <v>12.990000000000002</v>
+      </c>
+      <c r="F5" s="24">
+        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
+        <v>10.998000000000001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <f>0.43*60+0.01*0+0.56*0</f>
+        <v>25.8</v>
+      </c>
+      <c r="J5" s="24">
+        <f>I5*4</f>
+        <v>103.2</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="24">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24">
+        <v>70</v>
+      </c>
+      <c r="D6" s="24">
+        <v>80</v>
+      </c>
+      <c r="E6" s="24">
         <v>8</v>
       </c>
-      <c r="F2" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>51.66</v>
-      </c>
-      <c r="J2" s="13">
-        <v>123</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14">
-        <v>35</v>
-      </c>
-      <c r="C3" s="14">
-        <v>70</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="F6" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>40</v>
+      </c>
+      <c r="J6" s="24">
+        <v>160</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="24">
+        <v>15</v>
+      </c>
+      <c r="C7" s="24">
+        <v>90</v>
+      </c>
+      <c r="D7" s="24">
+        <v>170</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+      <c r="F7" s="24">
+        <v>10.8</v>
+      </c>
+      <c r="G7" s="24">
+        <v>16.5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>3</v>
+      </c>
+      <c r="J7" s="24">
         <v>60</v>
       </c>
-      <c r="E3" s="14">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>51.66</v>
-      </c>
-      <c r="J3" s="13">
-        <v>123</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14">
-        <v>70</v>
-      </c>
-      <c r="D4" s="14">
-        <v>60</v>
-      </c>
-      <c r="E4" s="14">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13">
-        <v>18.2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="13">
-        <v>22.5</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="14">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>12.3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14">
-        <v>60</v>
-      </c>
-      <c r="D6" s="14">
-        <v>33.33</v>
-      </c>
-      <c r="E6" s="14">
-        <v>8</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>11</v>
-      </c>
-      <c r="J6" s="14">
-        <v>11</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="C7" s="14">
-        <v>70</v>
-      </c>
-      <c r="D7" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4</v>
-      </c>
-      <c r="F7" s="14">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>77</v>
-      </c>
-      <c r="J7" s="14">
-        <v>77</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>150</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
+        <f>C2</f>
         <v>70</v>
       </c>
-      <c r="D8" s="11">
-        <v>80</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2.7</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
+      <c r="D8" s="10">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f>G1</f>
+        <v>Epro_Wm2</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="11">
-        <v>40</v>
-      </c>
-      <c r="J8" s="11">
-        <v>160</v>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="10">
+        <v>60</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -1534,483 +1545,475 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10">
+        <v>80</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>6.44</v>
+      </c>
+      <c r="J9" s="10">
+        <v>6.44</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13">
+        <v>60</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>51.66</v>
+      </c>
+      <c r="J10" s="13">
+        <v>123</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10">
+        <v>80</v>
+      </c>
+      <c r="E11" s="10">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>30</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13">
+        <v>70</v>
+      </c>
+      <c r="D12" s="13">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13">
         <v>12</v>
       </c>
-      <c r="B9" s="11">
+      <c r="F12" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="J12" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="E14" s="25">
+        <v>4</v>
+      </c>
+      <c r="F14" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>77</v>
+      </c>
+      <c r="J14" s="13">
+        <v>77</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C15" s="10">
         <v>70</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D15" s="10">
         <v>80</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E15" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F15" s="10">
         <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>2</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J15" s="10">
         <v>30</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
-        <v>90</v>
-      </c>
-      <c r="D10" s="11">
-        <v>170</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="G10" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="J10" s="11">
+      <c r="C16" s="13">
         <v>60</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>150</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="D16" s="13">
+        <v>33.33</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13">
         <v>17</v>
       </c>
-      <c r="B11" s="11">
-        <f>15*0.43+3*0.01+5*0.56</f>
-        <v>9.2800000000000011</v>
-      </c>
-      <c r="C11" s="11">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11">
-        <v>80</v>
-      </c>
-      <c r="E11" s="11">
-        <f>0.43*4+0.01*7+0.56*20</f>
-        <v>12.990000000000002</v>
-      </c>
-      <c r="F11" s="11">
-        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
-        <v>10.998000000000001</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <f>0.43*60+0.01*0+0.56*0</f>
-        <v>25.8</v>
-      </c>
-      <c r="J11" s="11">
-        <f>I11*4</f>
-        <v>103.2</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>16</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
-        <v>120</v>
-      </c>
-      <c r="D12" s="11">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>9.9</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>60</v>
-      </c>
-      <c r="J12" s="11">
-        <v>180</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11">
-        <v>70</v>
-      </c>
-      <c r="D13" s="11">
-        <v>80</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11">
-        <v>11.3</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>120</v>
-      </c>
-      <c r="J13" s="11">
-        <v>360</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>70</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>100</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>70</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>100</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>11</v>
+      </c>
+      <c r="J16" s="13">
+        <v>11</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11">
-        <f>C11</f>
+        <v>20</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
         <v>70</v>
       </c>
-      <c r="D17" s="11">
-        <f>D11</f>
-        <v>80</v>
-      </c>
-      <c r="E17" s="11">
-        <v>20</v>
-      </c>
-      <c r="F17" s="11">
-        <v>16.2</v>
-      </c>
-      <c r="G17" s="11">
-        <f>G10</f>
-        <v>16.5</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>3</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>100</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13">
         <v>60</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11">
-        <v>70</v>
-      </c>
-      <c r="D18" s="11">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11">
-        <v>7</v>
-      </c>
-      <c r="F18" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2</v>
-      </c>
-      <c r="J18" s="11">
-        <v>30</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="E18" s="13">
+        <v>8</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>51.66</v>
+      </c>
+      <c r="J18" s="13">
+        <v>123</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
         <v>70</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>80</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>2</v>
       </c>
-      <c r="F19" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="G19" s="10">
         <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>6.44</v>
-      </c>
-      <c r="J19" s="11">
-        <v>6.44</v>
+      <c r="I19" s="10">
+        <v>120</v>
+      </c>
+      <c r="J19" s="10">
+        <v>360</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -2029,31 +2032,31 @@
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>10</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>70</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>80</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>4</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>12.5</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>0</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>30</v>
       </c>
       <c r="K20" s="9">
@@ -2070,21 +2073,15 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2254,6 +2251,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2261,14 +2267,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2282,6 +2280,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
